--- a/biology/Botanique/Roger_Dion/Roger_Dion.xlsx
+++ b/biology/Botanique/Roger_Dion/Roger_Dion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Roger Dion est un géographe et historien français né le 28 octobre 1896 à Argenton-sur-Creuse (Indre) et mort le 19 septembre 1981 à Neuilly-sur-Seine[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Roger Dion est un géographe et historien français né le 28 octobre 1896 à Argenton-sur-Creuse (Indre) et mort le 19 septembre 1981 à Neuilly-sur-Seine.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Roger Dion naît le 28 octobre 1896 à Argenton-sur-Creuse dans le département de l'Indre, où son père est greffier de justice de paix[3]. Il fait ses études secondaires au collège Rollin à Paris[4].
-Il prépare de 1913 à 1915 au lycée Louis-le-Grand le concours de l'École normale supérieure. Il est mobilisé en 1916. Il entre à l'École normale supérieure en 1919[3]. Après avoir rédigé un diplôme d'études supérieures sur la région naturelle du Val de Loire dans le pays de Blois (1920), il obtient l'agrégation en 1921[3].
-En 1934, il soutient sa thèse sur le Val de Loire[3]. Il est alors nommé à l'université de Lille (Nord) puis, en 1945, à la Sorbonne ; en 1948, il est élu à la chaire de géographie historique au Collège de France[3], qu'il occupera pendant vingt ans[5]. Il eut plusieurs enfants, dont Denis Dion, Pierre Dion, Rémi Dion, Françoise Dion, devenue Jacquin, et Anne Marie Dion.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Roger Dion naît le 28 octobre 1896 à Argenton-sur-Creuse dans le département de l'Indre, où son père est greffier de justice de paix. Il fait ses études secondaires au collège Rollin à Paris.
+Il prépare de 1913 à 1915 au lycée Louis-le-Grand le concours de l'École normale supérieure. Il est mobilisé en 1916. Il entre à l'École normale supérieure en 1919. Après avoir rédigé un diplôme d'études supérieures sur la région naturelle du Val de Loire dans le pays de Blois (1920), il obtient l'agrégation en 1921.
+En 1934, il soutient sa thèse sur le Val de Loire. Il est alors nommé à l'université de Lille (Nord) puis, en 1945, à la Sorbonne ; en 1948, il est élu à la chaire de géographie historique au Collège de France, qu'il occupera pendant vingt ans. Il eut plusieurs enfants, dont Denis Dion, Pierre Dion, Rémi Dion, Françoise Dion, devenue Jacquin, et Anne Marie Dion.
 Il meurt à l'âge de 84 ans le 19 septembre 1981 à Neuilly-sur-Seine dans le département des Hauts-de-Seine.
 </t>
         </is>
@@ -547,18 +561,20 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ouvrages
-Le Val de Loire. Étude de géographie régionale, Tours, Arrault, 1933, 752 p.
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Val de Loire. Étude de géographie régionale, Tours, Arrault, 1933, 752 p.
 Essai sur la formation du paysage rural français, Tours, Arrault, 1934, 162 p. (réédition, Paris, Flammarion, 1991).
 La part de la géographie et celle de l'histoire dans l'explication de l'habitat rural du Bassin parisien, 1946.
 Les frontières de la France, Paris, Hachette, 1947, 112 p. (réédition, Brionne (Eure), Gérard Montfort, 1979).
 Histoire de la vigne et du vin en France : des origines au XIXesiècle, Paris, Clavreuil, 1959, 770 p. (réédition, Paris, Flammarion, 1991 - réédition, Paris, CNRS, 2010).
 Histoire des levées de la Loire, Paris, 1961, 312 p.
 Aspects politiques de la géographie antique, Paris, 1977.
-Le paysage et la vigne. Essais de géographie historique, Paris, Payot, 1990, 296 p.
-Articles
-« Géographie argentonnaise », in Argenton et son histoire, n° 14, 1997, Cercle d'histoire d'Argenton, Argenton-sur-Creuse.
-« Orléans et l’ancienne navigation de la Loire », Annales de géographie, tome XLVII, 1938, p. 128-154.</t>
+Le paysage et la vigne. Essais de géographie historique, Paris, Payot, 1990, 296 p.</t>
         </is>
       </c>
     </row>
@@ -583,12 +599,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>« Géographie argentonnaise », in Argenton et son histoire, n° 14, 1997, Cercle d'histoire d'Argenton, Argenton-sur-Creuse.
+« Orléans et l’ancienne navigation de la Loire », Annales de géographie, tome XLVII, 1938, p. 128-154.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Roger_Dion</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roger_Dion</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Croix de guerre 1914-1918 avec citation à l'ordre de la division[6]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Croix de guerre 1914-1918 avec citation à l'ordre de la division</t>
         </is>
       </c>
     </row>
